--- a/story/Main Story and Others 主线剧情等/guide 导航文字/beg/0_welcome_to_guide.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/beg/0_welcome_to_guide.xlsx
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Distant Voice"]   Circulation resumed... vitals stabilized… cardioplegia solution injected...
+    <t xml:space="preserve">[name="Distant Voice"]   Circulation resumed... vitals stabilized... cardioplegia solution injected...
 </t>
   </si>
   <si>
@@ -1120,11 +1120,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   But, just a moment ago… we were holding hands…
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]   So why… why is Doctor still not waking up…?
+    <t xml:space="preserve">[name="???"]   But, just a moment ago... we were holding hands...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]   So why... why is Doctor still not waking up...?
 </t>
   </si>
   <si>
@@ -1148,11 +1148,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Medic"]   ...I understand. Anyway, I’ll do what you requested.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]   All right… I appreciate it.
+    <t xml:space="preserve">[name="Medic"]   ...I understand. Anyway, I'll do what you requested.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]   All right... I appreciate it.
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   …Dr. {@nickname}.
+    <t xml:space="preserve">[name="Amiya"]   ...Dr. {@nickname}.
 </t>
   </si>
   <si>
@@ -1404,7 +1404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   I hope that... you’ll be able to take command.
+    <t xml:space="preserve">[name="Amiya"]   I hope that... you'll be able to take command.
 </t>
   </si>
   <si>
